--- a/changes/m4-stocks.xlsx
+++ b/changes/m4-stocks.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yifan\Documents\deadline-balancing\changes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77DA0FB5-9C0A-482C-933F-63AFEF6C558A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{072C52C9-4EF0-4558-AA6F-F9065736DF3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -894,9 +894,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -956,9 +955,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -996,7 +995,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1102,7 +1101,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1244,7 +1243,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1254,3583 +1253,3583 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14" style="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" t="s">
         <v>79</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" t="s">
         <v>120</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" t="s">
         <v>80</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" t="s">
         <v>81</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" t="s">
         <v>121</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" t="s">
         <v>82</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" t="s">
         <v>83</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" t="s">
         <v>84</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" t="s">
         <v>85</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="R2" t="s">
         <v>86</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="S2" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3">
         <v>10</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3">
         <v>0.33</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3">
         <v>-7</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3">
         <v>-11</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3">
         <v>1500</v>
       </c>
-      <c r="N3" s="1">
+      <c r="N3">
         <f>C3-(D3*20)-(E3*0.8)-(F3*0.6)-(H3*5)</f>
         <v>15.6</v>
       </c>
-      <c r="P3" s="1">
+      <c r="P3">
         <v>19</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="Q3">
         <f>P3*0.025</f>
         <v>0.47500000000000003</v>
       </c>
-      <c r="R3" s="1">
+      <c r="R3">
         <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4">
         <v>0.05</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4">
         <v>-1</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4">
         <v>-1</v>
       </c>
-      <c r="M4" s="1">
-        <v>0</v>
-      </c>
-      <c r="N4" s="1">
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
         <f t="shared" ref="N4:N67" si="0">C4-(D4*20)-(E4*0.8)-(F4*0.6)-(H4*5)</f>
         <v>1.4</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="Q4">
         <f t="shared" ref="Q4:Q54" si="1">P4*0.025</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
         <v>0.01</v>
       </c>
-      <c r="M5" s="1">
-        <v>0</v>
-      </c>
-      <c r="N5" s="1">
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
         <f t="shared" si="0"/>
         <v>-0.2</v>
       </c>
-      <c r="P5" s="1">
+      <c r="P5">
         <v>0.4</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="Q5">
         <f t="shared" si="1"/>
         <v>1.0000000000000002E-2</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>116</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>117</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6">
         <v>-2</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6">
         <v>0.13</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6">
         <v>-1</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6">
         <v>-1</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6">
         <v>500</v>
       </c>
-      <c r="N6" s="1">
+      <c r="N6">
         <f t="shared" si="0"/>
         <v>-3.1999999999999997</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="Q6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>118</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>119</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7">
         <v>16</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7">
         <v>0.23</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7">
         <v>-8</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7">
         <v>-14</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7">
         <v>500</v>
       </c>
-      <c r="N7" s="1">
+      <c r="N7">
         <f t="shared" si="0"/>
         <v>26.199999999999996</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="Q7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>124</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>125</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8">
         <v>-2</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8">
         <v>0.12</v>
       </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="M8" s="1">
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="M8">
         <v>1000</v>
       </c>
-      <c r="N8" s="1">
+      <c r="N8">
         <f>C8-(D8*20)-(E8*0.8)-(F8*0.6)-(H8*5)</f>
         <v>-4.4000000000000004</v>
       </c>
-      <c r="P8" s="1">
+      <c r="P8">
         <v>14</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="Q8">
         <f>P8*0.025</f>
         <v>0.35000000000000003</v>
       </c>
-      <c r="R8" s="1">
+      <c r="R8">
         <v>479.99</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="N9" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q9" s="1">
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>122</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>123</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10">
         <v>21</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10">
         <v>0.15</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10">
         <v>-6</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10">
         <v>-7</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M10">
         <v>800</v>
       </c>
-      <c r="N10" s="1">
+      <c r="N10">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="Q10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>88</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11">
         <v>11</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11">
         <v>0.44</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11">
         <v>-12</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11">
         <v>-18</v>
       </c>
-      <c r="M11" s="1">
+      <c r="M11">
         <v>700</v>
       </c>
-      <c r="N11" s="1">
+      <c r="N11">
         <f t="shared" si="0"/>
         <v>22.6</v>
       </c>
-      <c r="P11" s="1">
+      <c r="P11">
         <v>25</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="Q11">
         <f t="shared" si="1"/>
         <v>0.625</v>
       </c>
-      <c r="R11" s="1">
+      <c r="R11">
         <v>79.97</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12">
         <v>-1</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12">
         <v>0.04</v>
       </c>
-      <c r="M12" s="1">
+      <c r="M12">
         <v>100</v>
       </c>
-      <c r="N12" s="1">
+      <c r="N12">
         <f t="shared" si="0"/>
         <v>-1.8</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="Q12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13">
         <v>22</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13">
         <v>0.32</v>
       </c>
-      <c r="E13" s="1">
-        <v>0</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="H13" s="1">
-        <v>-0.1</v>
-      </c>
-      <c r="M13" s="1">
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>-0.05</v>
+      </c>
+      <c r="M13">
         <v>1200</v>
       </c>
-      <c r="N13" s="1">
-        <f t="shared" si="0"/>
-        <v>16.100000000000001</v>
-      </c>
-      <c r="P13" s="1">
+      <c r="N13">
+        <f t="shared" si="0"/>
+        <v>15.85</v>
+      </c>
+      <c r="P13">
         <v>31.68</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="Q13">
         <f t="shared" si="1"/>
         <v>0.79200000000000004</v>
       </c>
-      <c r="R13" s="1">
+      <c r="R13">
         <v>399.95</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14">
         <v>22</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14">
         <v>0.3</v>
       </c>
-      <c r="E14" s="1">
-        <v>0</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
-      <c r="H14" s="1">
-        <v>-0.1</v>
-      </c>
-      <c r="M14" s="1">
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>-0.05</v>
+      </c>
+      <c r="M14">
         <v>1200</v>
       </c>
-      <c r="N14" s="1">
-        <f t="shared" si="0"/>
-        <v>16.5</v>
-      </c>
-      <c r="P14" s="1">
+      <c r="N14">
+        <f t="shared" si="0"/>
+        <v>16.25</v>
+      </c>
+      <c r="P14">
         <v>31.68</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="Q14">
         <f t="shared" si="1"/>
         <v>0.79200000000000004</v>
       </c>
-      <c r="R14" s="1">
+      <c r="R14">
         <v>389.95</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>89</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>90</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15">
         <v>1</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15">
         <v>0.05</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15">
         <v>-1</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15">
         <v>-1</v>
       </c>
-      <c r="M15" s="1">
-        <v>0</v>
-      </c>
-      <c r="N15" s="1">
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
         <f t="shared" si="0"/>
         <v>1.4</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="Q15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>91</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16">
         <v>-1</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16">
         <v>-1</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16">
         <v>-2</v>
       </c>
-      <c r="H16" s="1">
-        <v>-0.1</v>
-      </c>
-      <c r="M16" s="1">
+      <c r="H16">
+        <v>-0.05</v>
+      </c>
+      <c r="M16">
         <v>400</v>
       </c>
-      <c r="N16" s="1">
-        <f t="shared" si="0"/>
-        <v>-1.3</v>
-      </c>
-      <c r="Q16" s="1">
+      <c r="N16">
+        <f t="shared" si="0"/>
+        <v>-1.55</v>
+      </c>
+      <c r="Q16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>92</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17">
         <v>14</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17">
         <v>0.28999999999999998</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17">
         <v>-14</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17">
         <v>-6</v>
       </c>
-      <c r="M17" s="1">
+      <c r="M17">
         <v>700</v>
       </c>
-      <c r="N17" s="1">
+      <c r="N17">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="P17" s="1">
+      <c r="P17">
         <v>21.3</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="Q17">
         <f t="shared" si="1"/>
         <v>0.53250000000000008</v>
       </c>
-      <c r="R17" s="1">
+      <c r="R17">
         <v>199.95</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18">
         <v>-2</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18">
         <v>0.15</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18">
         <v>-1</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18">
         <v>-1</v>
       </c>
-      <c r="H18" s="1">
-        <v>-0.1</v>
-      </c>
-      <c r="M18" s="1">
+      <c r="H18">
+        <v>-0.05</v>
+      </c>
+      <c r="M18">
         <v>300</v>
       </c>
-      <c r="N18" s="1">
-        <f t="shared" si="0"/>
-        <v>-3.1</v>
-      </c>
-      <c r="Q18" s="1">
+      <c r="N18">
+        <f t="shared" si="0"/>
+        <v>-3.35</v>
+      </c>
+      <c r="Q18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R18" s="1">
+      <c r="R18">
         <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19">
         <v>22</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19">
         <v>0.38</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19">
         <v>-3</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19">
         <v>-5</v>
       </c>
-      <c r="M19" s="1">
+      <c r="M19">
         <v>1200</v>
       </c>
-      <c r="N19" s="1">
+      <c r="N19">
         <f t="shared" si="0"/>
         <v>19.8</v>
       </c>
-      <c r="P19" s="1">
+      <c r="P19">
         <v>31.4</v>
       </c>
-      <c r="Q19" s="1">
+      <c r="Q19">
         <f t="shared" si="1"/>
         <v>0.78500000000000003</v>
       </c>
-      <c r="R19" s="1">
+      <c r="R19">
         <v>208.25</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20">
         <v>15</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20">
         <v>0.16</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20">
         <v>-7</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20">
         <v>-8</v>
       </c>
-      <c r="M20" s="1">
+      <c r="M20">
         <v>1000</v>
       </c>
-      <c r="N20" s="1">
+      <c r="N20">
         <f t="shared" si="0"/>
         <v>22.200000000000003</v>
       </c>
-      <c r="P20" s="1">
+      <c r="P20">
         <v>15.2</v>
       </c>
-      <c r="Q20" s="1">
+      <c r="Q20">
         <f t="shared" si="1"/>
         <v>0.38</v>
       </c>
-      <c r="R20" s="1">
+      <c r="R20">
         <v>59.9</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="1">
-        <v>0</v>
-      </c>
-      <c r="D21" s="1">
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
         <v>0.02</v>
       </c>
-      <c r="M21" s="1">
-        <v>0</v>
-      </c>
-      <c r="N21" s="1">
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
         <f t="shared" si="0"/>
         <v>-0.4</v>
       </c>
-      <c r="P21" s="1">
+      <c r="P21">
         <v>0.6</v>
       </c>
-      <c r="Q21" s="1">
+      <c r="Q21">
         <f t="shared" si="1"/>
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="N22" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q22" s="1">
+      <c r="N22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="A23" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
         <v>93</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23">
         <v>14</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23">
         <v>0.32</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23">
         <v>-9</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23">
         <v>-9</v>
       </c>
-      <c r="M23" s="1">
+      <c r="M23">
         <v>1000</v>
       </c>
-      <c r="N23" s="1">
+      <c r="N23">
         <f t="shared" si="0"/>
         <v>20.2</v>
       </c>
-      <c r="P23" s="1">
+      <c r="P23">
         <v>19</v>
       </c>
-      <c r="Q23" s="1">
+      <c r="Q23">
         <f t="shared" si="1"/>
         <v>0.47500000000000003</v>
       </c>
-      <c r="R23" s="1">
+      <c r="R23">
         <v>244.99</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
         <v>94</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24">
         <v>2</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24">
         <v>0.03</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24">
         <v>-1</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24">
         <v>-1</v>
       </c>
-      <c r="M24" s="1">
-        <v>0</v>
-      </c>
-      <c r="N24" s="1">
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
         <f t="shared" si="0"/>
         <v>2.8000000000000003</v>
       </c>
-      <c r="Q24" s="1">
+      <c r="Q24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25">
         <v>18</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E25" s="1">
-        <v>-3</v>
-      </c>
-      <c r="F25" s="1">
-        <v>-3</v>
-      </c>
-      <c r="M25" s="1">
+      <c r="E25">
+        <v>-4</v>
+      </c>
+      <c r="F25">
+        <v>-4</v>
+      </c>
+      <c r="M25">
         <v>500</v>
       </c>
-      <c r="N25" s="1">
-        <f t="shared" si="0"/>
-        <v>16.599999999999998</v>
-      </c>
-      <c r="P25" s="1">
+      <c r="N25">
+        <f t="shared" si="0"/>
+        <v>17.999999999999996</v>
+      </c>
+      <c r="P25">
         <v>14.4</v>
       </c>
-      <c r="Q25" s="1">
+      <c r="Q25">
         <f t="shared" si="1"/>
         <v>0.36000000000000004</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="A26" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26">
         <v>-1</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26">
         <v>0.11</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26">
         <v>-1</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26">
         <v>-1</v>
       </c>
-      <c r="H26" s="1">
-        <v>0</v>
-      </c>
-      <c r="M26" s="1">
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="M26">
         <v>600</v>
       </c>
-      <c r="N26" s="1">
+      <c r="N26">
         <f t="shared" si="0"/>
         <v>-1.8000000000000003</v>
       </c>
-      <c r="P26" s="1">
+      <c r="P26">
         <v>3.8</v>
       </c>
-      <c r="Q26" s="1">
+      <c r="Q26">
         <f t="shared" si="1"/>
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="R26" s="1">
+      <c r="R26">
         <v>52.95</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="A27" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27">
         <v>-2</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27">
         <v>0.15</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27">
         <v>-2</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27">
         <v>-1</v>
       </c>
-      <c r="H27" s="1">
+      <c r="H27">
         <v>-0.1</v>
       </c>
-      <c r="M27" s="1">
-        <v>0</v>
-      </c>
-      <c r="N27" s="1">
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
         <f t="shared" si="0"/>
         <v>-2.2999999999999998</v>
       </c>
-      <c r="P27" s="1">
+      <c r="P27">
         <v>6</v>
       </c>
-      <c r="Q27" s="1">
+      <c r="Q27">
         <f t="shared" si="1"/>
         <v>0.15000000000000002</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="N28" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q28" s="1">
+      <c r="N28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="A29" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29">
         <v>17</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29">
         <v>0.2</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29">
         <v>-12</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29">
         <v>-6</v>
       </c>
-      <c r="M29" s="1">
+      <c r="M29">
         <v>900</v>
       </c>
-      <c r="N29" s="1">
+      <c r="N29">
         <f t="shared" si="0"/>
         <v>26.200000000000003</v>
       </c>
-      <c r="P29" s="1">
+      <c r="P29">
         <v>15.8</v>
       </c>
-      <c r="Q29" s="1">
+      <c r="Q29">
         <f t="shared" si="1"/>
         <v>0.39500000000000002</v>
       </c>
-      <c r="R29" s="1">
+      <c r="R29">
         <v>349.95</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="A30" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" t="s">
         <v>45</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30">
         <v>16</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30">
         <v>0.26</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30">
         <v>-5</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30">
         <v>-19</v>
       </c>
-      <c r="M30" s="1">
+      <c r="M30">
         <v>1000</v>
       </c>
-      <c r="N30" s="1">
+      <c r="N30">
         <f t="shared" si="0"/>
         <v>26.200000000000003</v>
       </c>
-      <c r="P30" s="1">
+      <c r="P30">
         <v>13</v>
       </c>
-      <c r="Q30" s="1">
+      <c r="Q30">
         <f t="shared" si="1"/>
         <v>0.32500000000000001</v>
       </c>
-      <c r="R30" s="1">
+      <c r="R30">
         <v>249.95</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="A31" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31">
         <v>18</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31">
         <v>-6</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31">
         <v>-7</v>
       </c>
-      <c r="M31" s="1">
+      <c r="M31">
         <v>500</v>
       </c>
-      <c r="N31" s="1">
+      <c r="N31">
         <f t="shared" si="0"/>
         <v>24.2</v>
       </c>
-      <c r="P31" s="1">
+      <c r="P31">
         <v>6.6</v>
       </c>
-      <c r="Q31" s="1">
+      <c r="Q31">
         <f t="shared" si="1"/>
         <v>0.16500000000000001</v>
       </c>
-      <c r="R31" s="1">
+      <c r="R31">
         <v>45.95</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="A32" t="s">
         <v>48</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" t="s">
         <v>95</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32">
         <v>1</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32">
         <v>0.02</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32">
         <v>-1</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32">
         <v>-1</v>
       </c>
-      <c r="M32" s="1">
-        <v>0</v>
-      </c>
-      <c r="N32" s="1">
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="Q32" s="1">
+      <c r="Q32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="A33" t="s">
         <v>49</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" t="s">
         <v>96</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33">
         <v>17</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33">
         <v>0.19</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33">
         <v>-9</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F33">
         <v>-8</v>
       </c>
-      <c r="M33" s="1">
+      <c r="M33">
         <v>800</v>
       </c>
-      <c r="N33" s="1">
+      <c r="N33">
         <f t="shared" si="0"/>
         <v>25.2</v>
       </c>
-      <c r="P33" s="1">
+      <c r="P33">
         <v>8.4</v>
       </c>
-      <c r="Q33" s="1">
+      <c r="Q33">
         <f t="shared" si="1"/>
         <v>0.21000000000000002</v>
       </c>
-      <c r="R33" s="1">
+      <c r="R33">
         <v>44.95</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="A34" t="s">
         <v>51</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" t="s">
         <v>110</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34">
         <v>1</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34">
         <v>0.02</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34">
         <v>-1</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F34">
         <v>-1</v>
       </c>
-      <c r="M34" s="1">
-        <v>0</v>
-      </c>
-      <c r="N34" s="1">
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="Q34" s="1">
+      <c r="Q34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="A35" t="s">
         <v>52</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" t="s">
         <v>53</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35">
         <v>16</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35">
         <v>0.22</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35">
         <v>-7</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F35">
         <v>-12</v>
       </c>
-      <c r="M35" s="1">
+      <c r="M35">
         <v>800</v>
       </c>
-      <c r="N35" s="1">
+      <c r="N35">
         <f t="shared" si="0"/>
         <v>24.4</v>
       </c>
-      <c r="P35" s="1">
+      <c r="P35">
         <v>15.5</v>
       </c>
-      <c r="Q35" s="1">
+      <c r="Q35">
         <f t="shared" si="1"/>
         <v>0.38750000000000001</v>
       </c>
-      <c r="R35" s="1">
+      <c r="R35">
         <v>250</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="A36" t="s">
         <v>54</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" t="s">
         <v>97</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36">
         <v>1</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36">
         <v>0.03</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36">
         <v>-1</v>
       </c>
-      <c r="F36" s="1">
+      <c r="F36">
         <v>-1</v>
       </c>
-      <c r="M36" s="1">
-        <v>0</v>
-      </c>
-      <c r="N36" s="1">
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
         <f t="shared" si="0"/>
         <v>1.8000000000000003</v>
       </c>
-      <c r="Q36" s="1">
+      <c r="Q36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="A37" t="s">
         <v>55</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" t="s">
         <v>98</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37">
         <v>14</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37">
         <v>0.26</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37">
         <v>-10</v>
       </c>
-      <c r="F37" s="1">
+      <c r="F37">
         <v>-11</v>
       </c>
-      <c r="M37" s="1">
+      <c r="M37">
         <v>700</v>
       </c>
-      <c r="N37" s="1">
+      <c r="N37">
         <f t="shared" si="0"/>
         <v>23.4</v>
       </c>
-      <c r="P37" s="1">
+      <c r="P37">
         <v>14</v>
       </c>
-      <c r="Q37" s="1">
+      <c r="Q37">
         <f t="shared" si="1"/>
         <v>0.35000000000000003</v>
       </c>
-      <c r="R37" s="1">
+      <c r="R37">
         <v>197.95</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="A38" t="s">
         <v>57</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" t="s">
         <v>99</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38">
         <v>1</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38">
         <v>-1</v>
       </c>
-      <c r="F38" s="1">
+      <c r="F38">
         <v>-1</v>
       </c>
-      <c r="M38" s="1">
-        <v>0</v>
-      </c>
-      <c r="N38" s="1">
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
         <f t="shared" si="0"/>
         <v>1.9</v>
       </c>
-      <c r="Q38" s="1">
+      <c r="Q38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="A39" t="s">
         <v>58</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" t="s">
         <v>59</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39">
         <v>20</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39">
         <v>0.33</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E39">
         <v>-4</v>
       </c>
-      <c r="F39" s="1">
+      <c r="F39">
         <v>-3</v>
       </c>
-      <c r="H39" s="1">
-        <v>-0.1</v>
-      </c>
-      <c r="M39" s="1">
+      <c r="H39">
+        <v>-0.05</v>
+      </c>
+      <c r="M39">
         <v>1500</v>
       </c>
-      <c r="N39" s="1">
-        <f t="shared" si="0"/>
-        <v>18.899999999999999</v>
-      </c>
-      <c r="P39" s="1">
+      <c r="N39">
+        <f t="shared" si="0"/>
+        <v>18.649999999999999</v>
+      </c>
+      <c r="P39">
         <v>27.8</v>
       </c>
-      <c r="Q39" s="1">
+      <c r="Q39">
         <f t="shared" si="1"/>
         <v>0.69500000000000006</v>
       </c>
-      <c r="R39" s="1">
+      <c r="R39">
         <v>259.95</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="A40" t="s">
         <v>60</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" t="s">
         <v>100</v>
       </c>
-      <c r="C40" s="1">
-        <v>0</v>
-      </c>
-      <c r="D40" s="1">
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
         <v>0.05</v>
       </c>
-      <c r="M40" s="1">
-        <v>0</v>
-      </c>
-      <c r="N40" s="1">
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="Q40" s="1">
+      <c r="Q40">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="A41" t="s">
         <v>61</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" t="s">
         <v>62</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41">
         <v>1</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41">
         <v>0.04</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E41">
         <v>-1</v>
       </c>
-      <c r="F41" s="1">
+      <c r="F41">
         <v>-1</v>
       </c>
-      <c r="M41" s="1">
-        <v>0</v>
-      </c>
-      <c r="N41" s="1">
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
         <f t="shared" si="0"/>
         <v>1.6</v>
       </c>
-      <c r="Q41" s="1">
+      <c r="Q41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="A42" t="s">
         <v>63</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" t="s">
         <v>101</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42">
         <v>15</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42">
         <v>0.21</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E42">
         <v>-9</v>
       </c>
-      <c r="F42" s="1">
+      <c r="F42">
         <v>-12</v>
       </c>
-      <c r="M42" s="1">
+      <c r="M42">
         <v>600</v>
       </c>
-      <c r="N42" s="1">
+      <c r="N42">
         <f t="shared" si="0"/>
         <v>25.2</v>
       </c>
-      <c r="P42" s="1">
+      <c r="P42">
         <v>9.5</v>
       </c>
-      <c r="Q42" s="1">
+      <c r="Q42">
         <f t="shared" si="1"/>
         <v>0.23750000000000002</v>
       </c>
-      <c r="R42" s="1">
+      <c r="R42">
         <v>59.9</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="A43" t="s">
         <v>65</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" t="s">
         <v>66</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43">
         <v>16</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D43">
         <v>0.22</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E43">
         <v>-12</v>
       </c>
-      <c r="F43" s="1">
+      <c r="F43">
         <v>-7</v>
       </c>
-      <c r="M43" s="1">
+      <c r="M43">
         <v>750</v>
       </c>
-      <c r="N43" s="1">
+      <c r="N43">
         <f t="shared" si="0"/>
         <v>25.400000000000002</v>
       </c>
-      <c r="P43" s="1">
+      <c r="P43">
         <v>10</v>
       </c>
-      <c r="Q43" s="1">
+      <c r="Q43">
         <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="A44" t="s">
         <v>67</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" t="s">
         <v>68</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44">
         <v>16</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D44">
         <v>0.2</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E44">
         <v>-9</v>
       </c>
-      <c r="F44" s="1">
+      <c r="F44">
         <v>-7</v>
       </c>
-      <c r="M44" s="1">
-        <v>0</v>
-      </c>
-      <c r="N44" s="1">
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
         <f t="shared" si="0"/>
         <v>23.4</v>
       </c>
-      <c r="P44" s="1">
+      <c r="P44">
         <v>8</v>
       </c>
-      <c r="Q44" s="1">
+      <c r="Q44">
         <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+      <c r="A45" t="s">
         <v>69</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" t="s">
         <v>111</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45">
         <v>1</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D45">
         <v>0.02</v>
       </c>
-      <c r="E45" s="1">
+      <c r="E45">
         <v>-1</v>
       </c>
-      <c r="F45" s="1">
+      <c r="F45">
         <v>-1</v>
       </c>
-      <c r="M45" s="1">
-        <v>0</v>
-      </c>
-      <c r="N45" s="1">
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="Q45" s="1">
+      <c r="Q45">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+      <c r="A46" t="s">
         <v>70</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" t="s">
         <v>71</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46">
         <v>18</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D46">
         <v>0.24</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E46">
         <v>-5</v>
       </c>
-      <c r="F46" s="1">
+      <c r="F46">
         <v>-13</v>
       </c>
-      <c r="M46" s="1">
+      <c r="M46">
         <v>700</v>
       </c>
-      <c r="N46" s="1">
+      <c r="N46">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="P46" s="1">
+      <c r="P46">
         <v>12.4</v>
       </c>
-      <c r="Q46" s="1">
+      <c r="Q46">
         <f t="shared" si="1"/>
         <v>0.31000000000000005</v>
       </c>
-      <c r="R46" s="1">
+      <c r="R46">
         <v>209</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+      <c r="A47" t="s">
         <v>72</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" t="s">
         <v>73</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47">
         <v>16</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D47">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E47" s="1">
+      <c r="E47">
         <v>-6</v>
       </c>
-      <c r="F47" s="1">
+      <c r="F47">
         <v>-11</v>
       </c>
-      <c r="M47" s="1">
+      <c r="M47">
         <v>500</v>
       </c>
-      <c r="N47" s="1">
+      <c r="N47">
         <f t="shared" si="0"/>
         <v>24.6</v>
       </c>
-      <c r="P47" s="1">
+      <c r="P47">
         <v>4.5999999999999996</v>
       </c>
-      <c r="Q47" s="1">
+      <c r="Q47">
         <f t="shared" si="1"/>
         <v>0.11499999999999999</v>
       </c>
-      <c r="R47" s="1">
+      <c r="R47">
         <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+      <c r="A48" t="s">
         <v>74</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" t="s">
         <v>102</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48">
         <v>1</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D48">
         <v>0.03</v>
       </c>
-      <c r="E48" s="1">
+      <c r="E48">
         <v>-1</v>
       </c>
-      <c r="F48" s="1">
+      <c r="F48">
         <v>-1</v>
       </c>
-      <c r="M48" s="1">
-        <v>0</v>
-      </c>
-      <c r="N48" s="1">
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
         <f t="shared" si="0"/>
         <v>1.8000000000000003</v>
       </c>
-      <c r="P48" s="1">
+      <c r="P48">
         <v>1</v>
       </c>
-      <c r="Q48" s="1">
+      <c r="Q48">
         <f t="shared" si="1"/>
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+      <c r="A49" t="s">
         <v>75</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" t="s">
         <v>76</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49">
         <v>17</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D49">
         <v>0.23</v>
       </c>
-      <c r="E49" s="1">
+      <c r="E49">
         <v>-9</v>
       </c>
-      <c r="F49" s="1">
+      <c r="F49">
         <v>-9</v>
       </c>
-      <c r="M49" s="1">
+      <c r="M49">
         <v>900</v>
       </c>
-      <c r="N49" s="1">
+      <c r="N49">
         <f t="shared" si="0"/>
         <v>24.999999999999996</v>
       </c>
-      <c r="P49" s="1">
+      <c r="P49">
         <v>12.6</v>
       </c>
-      <c r="Q49" s="1">
+      <c r="Q49">
         <f t="shared" si="1"/>
         <v>0.315</v>
       </c>
-      <c r="R49" s="1">
+      <c r="R49">
         <v>84.95</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+      <c r="A50" t="s">
         <v>77</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" t="s">
         <v>109</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50">
         <v>1</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D50">
         <v>0.02</v>
       </c>
-      <c r="E50" s="1">
+      <c r="E50">
         <v>-1</v>
       </c>
-      <c r="F50" s="1">
+      <c r="F50">
         <v>-1</v>
       </c>
-      <c r="M50" s="1">
-        <v>0</v>
-      </c>
-      <c r="N50" s="1">
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="Q50" s="1">
+      <c r="Q50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+      <c r="A51" t="s">
         <v>105</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" t="s">
         <v>106</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51">
         <v>18</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D51">
         <v>0.17</v>
       </c>
-      <c r="E51" s="1">
+      <c r="E51">
         <v>-7</v>
       </c>
-      <c r="F51" s="1">
+      <c r="F51">
         <v>-8</v>
       </c>
-      <c r="M51" s="1">
+      <c r="M51">
         <v>800</v>
       </c>
-      <c r="N51" s="1">
+      <c r="N51">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="P51" s="1">
+      <c r="P51">
         <v>7.8</v>
       </c>
-      <c r="Q51" s="1">
+      <c r="Q51">
         <f t="shared" si="1"/>
         <v>0.19500000000000001</v>
       </c>
-      <c r="R51" s="1">
+      <c r="R51">
         <v>44.95</v>
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+      <c r="A52" t="s">
         <v>107</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" t="s">
         <v>108</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C52">
         <v>1</v>
       </c>
-      <c r="D52" s="1">
+      <c r="D52">
         <v>0.02</v>
       </c>
-      <c r="E52" s="1">
+      <c r="E52">
         <v>-1</v>
       </c>
-      <c r="F52" s="1">
+      <c r="F52">
         <v>-1</v>
       </c>
-      <c r="M52" s="1">
-        <v>0</v>
-      </c>
-      <c r="N52" s="1">
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="Q52" s="1">
+      <c r="Q52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+      <c r="A53" t="s">
         <v>112</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" t="s">
         <v>113</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C53">
         <v>16</v>
       </c>
-      <c r="D53" s="1">
+      <c r="D53">
         <v>0.18</v>
       </c>
-      <c r="E53" s="1">
+      <c r="E53">
         <v>-8</v>
       </c>
-      <c r="F53" s="1">
+      <c r="F53">
         <v>-10</v>
       </c>
-      <c r="M53" s="1">
+      <c r="M53">
         <v>900</v>
       </c>
-      <c r="N53" s="1">
+      <c r="N53">
         <f t="shared" si="0"/>
         <v>24.8</v>
       </c>
-      <c r="P53" s="1">
+      <c r="P53">
         <v>8</v>
       </c>
-      <c r="Q53" s="1">
+      <c r="Q53">
         <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
-      <c r="R53" s="1">
+      <c r="R53">
         <v>82</v>
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+      <c r="A54" t="s">
         <v>114</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" t="s">
         <v>115</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C54">
         <v>1</v>
       </c>
-      <c r="D54" s="1">
+      <c r="D54">
         <v>0.02</v>
       </c>
-      <c r="E54" s="1">
+      <c r="E54">
         <v>-1</v>
       </c>
-      <c r="F54" s="1">
+      <c r="F54">
         <v>-1</v>
       </c>
-      <c r="M54" s="1">
-        <v>0</v>
-      </c>
-      <c r="N54" s="1">
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="Q54" s="1">
+      <c r="Q54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="N55" s="1">
+      <c r="N55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B56" s="1" t="s">
+      <c r="B56" t="s">
         <v>103</v>
       </c>
-      <c r="N56" s="1">
+      <c r="N56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B57" s="1" t="s">
+      <c r="B57" t="s">
         <v>104</v>
       </c>
-      <c r="C57" s="1">
-        <f>C4+C3</f>
+      <c r="C57">
+        <f t="shared" ref="C57:M57" si="2">C4+C3</f>
         <v>11</v>
       </c>
-      <c r="D57" s="1">
-        <f>D4+D3</f>
+      <c r="D57">
+        <f t="shared" si="2"/>
         <v>0.38</v>
       </c>
-      <c r="E57" s="1">
-        <f>E4+E3</f>
+      <c r="E57">
+        <f t="shared" si="2"/>
         <v>-8</v>
       </c>
-      <c r="F57" s="1">
-        <f>F4+F3</f>
+      <c r="F57">
+        <f t="shared" si="2"/>
         <v>-12</v>
       </c>
-      <c r="G57" s="1">
-        <f>G4+G3</f>
-        <v>0</v>
-      </c>
-      <c r="H57" s="1">
-        <f>H4+H3</f>
-        <v>0</v>
-      </c>
-      <c r="I57" s="1">
-        <f>I4+I3</f>
-        <v>0</v>
-      </c>
-      <c r="J57" s="1">
-        <f>J4+J3</f>
-        <v>0</v>
-      </c>
-      <c r="K57" s="1">
-        <f>K4+K3</f>
-        <v>0</v>
-      </c>
-      <c r="L57" s="1">
-        <f>L4+L3</f>
-        <v>0</v>
-      </c>
-      <c r="M57" s="1">
-        <f>M4+M3</f>
+      <c r="G57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <f t="shared" si="2"/>
         <v>1500</v>
       </c>
-      <c r="N57" s="1">
+      <c r="N57">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="O57" s="1">
+      <c r="O57">
         <f>O4+O3</f>
         <v>0</v>
       </c>
-      <c r="P57" s="1">
+      <c r="P57">
         <f>P4+P3</f>
         <v>19</v>
       </c>
-      <c r="Q57" s="1">
+      <c r="Q57">
         <f>P57*0.015+0.15</f>
         <v>0.43499999999999994</v>
       </c>
-      <c r="R57" s="1">
+      <c r="R57">
         <f>R4+R3</f>
         <v>129</v>
       </c>
-      <c r="S57" s="1">
-        <f t="shared" ref="S57:S82" si="2">R57*3+500</f>
+      <c r="S57">
+        <f t="shared" ref="S57:S82" si="3">R57*3+500</f>
         <v>887</v>
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B58" s="1" t="s">
+      <c r="B58" t="s">
         <v>119</v>
       </c>
-      <c r="C58" s="1">
-        <f>C6+C7</f>
+      <c r="C58">
+        <f t="shared" ref="C58:M58" si="4">C6+C7</f>
         <v>14</v>
       </c>
-      <c r="D58" s="1">
-        <f>D6+D7</f>
+      <c r="D58">
+        <f t="shared" si="4"/>
         <v>0.36</v>
       </c>
-      <c r="E58" s="1">
-        <f>E6+E7</f>
+      <c r="E58">
+        <f t="shared" si="4"/>
         <v>-9</v>
       </c>
-      <c r="F58" s="1">
-        <f>F6+F7</f>
+      <c r="F58">
+        <f t="shared" si="4"/>
         <v>-15</v>
       </c>
-      <c r="G58" s="1">
-        <f>G6+G7</f>
-        <v>0</v>
-      </c>
-      <c r="H58" s="1">
-        <f>H6+H7</f>
-        <v>0</v>
-      </c>
-      <c r="I58" s="1">
-        <f>I6+I7</f>
-        <v>0</v>
-      </c>
-      <c r="J58" s="1">
-        <f>J6+J7</f>
-        <v>0</v>
-      </c>
-      <c r="K58" s="1">
-        <f>K6+K7</f>
-        <v>0</v>
-      </c>
-      <c r="L58" s="1">
-        <f>L6+L7</f>
-        <v>0</v>
-      </c>
-      <c r="M58" s="1">
-        <f>M6+M7</f>
+      <c r="G58">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
-      <c r="N58" s="1">
+      <c r="N58">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="Q58" s="1">
-        <f t="shared" ref="Q58:Q82" si="3">P58*0.015+0.15</f>
+      <c r="Q58">
+        <f t="shared" ref="Q58:Q82" si="5">P58*0.015+0.15</f>
         <v>0.15</v>
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B59" s="1" t="s">
+      <c r="B59" t="s">
         <v>13</v>
       </c>
-      <c r="C59" s="1">
-        <f>C10+C8+C5</f>
+      <c r="C59">
+        <f t="shared" ref="C59:M59" si="6">C10+C8+C5</f>
         <v>19</v>
       </c>
-      <c r="D59" s="1">
-        <f>D10+D8+D5</f>
+      <c r="D59">
+        <f t="shared" si="6"/>
         <v>0.28000000000000003</v>
       </c>
-      <c r="E59" s="1">
-        <f>E10+E8+E5</f>
+      <c r="E59">
+        <f t="shared" si="6"/>
         <v>-6</v>
       </c>
-      <c r="F59" s="1">
-        <f>F10+F8+F5</f>
+      <c r="F59">
+        <f t="shared" si="6"/>
         <v>-7</v>
       </c>
-      <c r="G59" s="1">
-        <f>G10+G8+G5</f>
-        <v>0</v>
-      </c>
-      <c r="H59" s="1">
-        <f>H10+H8+H5</f>
-        <v>0</v>
-      </c>
-      <c r="I59" s="1">
-        <f>I10+I8+I5</f>
-        <v>0</v>
-      </c>
-      <c r="J59" s="1">
-        <f>J10+J8+J5</f>
-        <v>0</v>
-      </c>
-      <c r="K59" s="1">
-        <f>K10+K8+K5</f>
-        <v>0</v>
-      </c>
-      <c r="L59" s="1">
-        <f>L10+L8+L5</f>
-        <v>0</v>
-      </c>
-      <c r="M59" s="1">
-        <f>M10+M8+M5</f>
+      <c r="G59">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <f t="shared" si="6"/>
         <v>1800</v>
       </c>
-      <c r="N59" s="1">
+      <c r="N59">
         <f t="shared" si="0"/>
         <v>22.4</v>
       </c>
-      <c r="P59" s="1">
+      <c r="P59">
         <f>P10+P8+P5</f>
         <v>14.4</v>
       </c>
-      <c r="Q59" s="1">
-        <f t="shared" si="3"/>
+      <c r="Q59">
+        <f t="shared" si="5"/>
         <v>0.36599999999999999</v>
       </c>
-      <c r="R59" s="1">
+      <c r="R59">
         <f>R10+R8+R5</f>
         <v>479.99</v>
       </c>
-      <c r="S59" s="1">
-        <f t="shared" si="2"/>
+      <c r="S59">
+        <f t="shared" si="3"/>
         <v>1939.97</v>
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B60" s="1" t="s">
+      <c r="B60" t="s">
         <v>15</v>
       </c>
-      <c r="C60" s="1">
-        <f>C11+C5</f>
+      <c r="C60">
+        <f t="shared" ref="C60:M60" si="7">C11+C5</f>
         <v>11</v>
       </c>
-      <c r="D60" s="1">
-        <f>D11+D5</f>
+      <c r="D60">
+        <f t="shared" si="7"/>
         <v>0.45</v>
       </c>
-      <c r="E60" s="1">
-        <f>E11+E5</f>
+      <c r="E60">
+        <f t="shared" si="7"/>
         <v>-12</v>
       </c>
-      <c r="F60" s="1">
-        <f>F11+F5</f>
+      <c r="F60">
+        <f t="shared" si="7"/>
         <v>-18</v>
       </c>
-      <c r="G60" s="1">
-        <f>G11+G5</f>
-        <v>0</v>
-      </c>
-      <c r="H60" s="1">
-        <f>H11+H5</f>
-        <v>0</v>
-      </c>
-      <c r="I60" s="1">
-        <f>I11+I5</f>
-        <v>0</v>
-      </c>
-      <c r="J60" s="1">
-        <f>J11+J5</f>
-        <v>0</v>
-      </c>
-      <c r="K60" s="1">
-        <f>K11+K5</f>
-        <v>0</v>
-      </c>
-      <c r="L60" s="1">
-        <f>L11+L5</f>
-        <v>0</v>
-      </c>
-      <c r="M60" s="1">
-        <f>M11+M5</f>
+      <c r="G60">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <f t="shared" si="7"/>
         <v>700</v>
       </c>
-      <c r="N60" s="1">
+      <c r="N60">
         <f t="shared" si="0"/>
         <v>22.4</v>
       </c>
-      <c r="P60" s="1">
+      <c r="P60">
         <f>P11+P5</f>
         <v>25.4</v>
       </c>
-      <c r="Q60" s="1">
-        <f t="shared" si="3"/>
+      <c r="Q60">
+        <f t="shared" si="5"/>
         <v>0.53099999999999992</v>
       </c>
-      <c r="R60" s="1">
+      <c r="R60">
         <f>R11+R5</f>
         <v>79.97</v>
       </c>
-      <c r="S60" s="1">
-        <f t="shared" si="2"/>
+      <c r="S60">
+        <f t="shared" si="3"/>
         <v>739.91</v>
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B61" s="1" t="s">
+      <c r="B61" t="s">
         <v>19</v>
       </c>
-      <c r="C61" s="1">
-        <f>C13+C12+C5+C15</f>
+      <c r="C61">
+        <f t="shared" ref="C61:M61" si="8">C13+C12+C5+C15</f>
         <v>22</v>
       </c>
-      <c r="D61" s="1">
-        <f>D13+D12+D5+D15</f>
+      <c r="D61">
+        <f t="shared" si="8"/>
         <v>0.42</v>
       </c>
-      <c r="E61" s="1">
-        <f>E13+E12+E5+E15</f>
+      <c r="E61">
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
-      <c r="F61" s="1">
-        <f>F13+F12+F5+F15</f>
+      <c r="F61">
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
-      <c r="G61" s="1">
-        <f>G13+G12+G5+G15</f>
-        <v>0</v>
-      </c>
-      <c r="H61" s="1">
-        <f>H13+H12+H5+H15</f>
-        <v>-0.1</v>
-      </c>
-      <c r="I61" s="1">
-        <f>I13+I12+I5+I15</f>
-        <v>0</v>
-      </c>
-      <c r="J61" s="1">
-        <f>J13+J12+J5+J15</f>
-        <v>0</v>
-      </c>
-      <c r="K61" s="1">
-        <f>K13+K12+K5+K15</f>
-        <v>0</v>
-      </c>
-      <c r="L61" s="1">
-        <f>L13+L12+L5+L15</f>
-        <v>0</v>
-      </c>
-      <c r="M61" s="1">
-        <f>M13+M12+M5+M15</f>
+      <c r="G61">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="8"/>
+        <v>-0.05</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <f t="shared" si="8"/>
         <v>1300</v>
       </c>
-      <c r="N61" s="1">
-        <f t="shared" si="0"/>
-        <v>15.5</v>
-      </c>
-      <c r="P61" s="1">
+      <c r="N61">
+        <f t="shared" si="0"/>
+        <v>15.25</v>
+      </c>
+      <c r="P61">
         <f>P13+P12+P5</f>
         <v>32.08</v>
       </c>
-      <c r="Q61" s="1">
-        <f t="shared" si="3"/>
+      <c r="Q61">
+        <f t="shared" si="5"/>
         <v>0.63119999999999998</v>
       </c>
-      <c r="R61" s="1">
+      <c r="R61">
         <f>R13+R12+R5</f>
         <v>399.95</v>
       </c>
-      <c r="S61" s="1">
-        <f t="shared" si="2"/>
+      <c r="S61">
+        <f t="shared" si="3"/>
         <v>1699.85</v>
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B62" s="1" t="s">
+      <c r="B62" t="s">
         <v>21</v>
       </c>
-      <c r="C62" s="1">
-        <f>C14+C12+C5+C15</f>
+      <c r="C62">
+        <f t="shared" ref="C62:M62" si="9">C14+C12+C5+C15</f>
         <v>22</v>
       </c>
-      <c r="D62" s="1">
-        <f>D14+D12+D5+D15</f>
+      <c r="D62">
+        <f t="shared" si="9"/>
         <v>0.39999999999999997</v>
       </c>
-      <c r="E62" s="1">
-        <f>E14+E12+E5+E15</f>
+      <c r="E62">
+        <f t="shared" si="9"/>
         <v>-1</v>
       </c>
-      <c r="F62" s="1">
-        <f>F14+F12+F5+F15</f>
+      <c r="F62">
+        <f t="shared" si="9"/>
         <v>-1</v>
       </c>
-      <c r="G62" s="1">
-        <f>G14+G12+G5+G15</f>
-        <v>0</v>
-      </c>
-      <c r="H62" s="1">
-        <f>H14+H12+H5+H15</f>
-        <v>-0.1</v>
-      </c>
-      <c r="I62" s="1">
-        <f>I14+I12+I5+I15</f>
-        <v>0</v>
-      </c>
-      <c r="J62" s="1">
-        <f>J14+J12+J5+J15</f>
-        <v>0</v>
-      </c>
-      <c r="K62" s="1">
-        <f>K14+K12+K5+K15</f>
-        <v>0</v>
-      </c>
-      <c r="L62" s="1">
-        <f>L14+L12+L5+L15</f>
-        <v>0</v>
-      </c>
-      <c r="M62" s="1">
-        <f>M14+M12+M5+M15</f>
+      <c r="G62">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="9"/>
+        <v>-0.05</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <f t="shared" si="9"/>
         <v>1300</v>
       </c>
-      <c r="N62" s="1">
-        <f t="shared" si="0"/>
-        <v>15.9</v>
-      </c>
-      <c r="P62" s="1">
+      <c r="N62">
+        <f t="shared" si="0"/>
+        <v>15.65</v>
+      </c>
+      <c r="P62">
         <f>P14+P12+P5</f>
         <v>32.08</v>
       </c>
-      <c r="Q62" s="1">
-        <f t="shared" si="3"/>
+      <c r="Q62">
+        <f t="shared" si="5"/>
         <v>0.63119999999999998</v>
       </c>
-      <c r="R62" s="1">
+      <c r="R62">
         <f>R14+R12+R5</f>
         <v>389.95</v>
       </c>
-      <c r="S62" s="1">
-        <f t="shared" si="2"/>
+      <c r="S62">
+        <f t="shared" si="3"/>
         <v>1669.85</v>
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B63" s="1" t="s">
+      <c r="B63" t="s">
         <v>23</v>
       </c>
-      <c r="C63" s="1">
-        <f>C17+C16+C5</f>
+      <c r="C63">
+        <f t="shared" ref="C63:M63" si="10">C17+C16+C5</f>
         <v>13</v>
       </c>
-      <c r="D63" s="1">
-        <f>D17+D16+D5</f>
+      <c r="D63">
+        <f t="shared" si="10"/>
         <v>0.44</v>
       </c>
-      <c r="E63" s="1">
-        <f>E17+E16+E5</f>
+      <c r="E63">
+        <f t="shared" si="10"/>
         <v>-15</v>
       </c>
-      <c r="F63" s="1">
-        <f>F17+F16+F5</f>
+      <c r="F63">
+        <f t="shared" si="10"/>
         <v>-8</v>
       </c>
-      <c r="G63" s="1">
-        <f>G17+G16+G5</f>
-        <v>0</v>
-      </c>
-      <c r="H63" s="1">
-        <f>H17+H16+H5</f>
-        <v>-0.1</v>
-      </c>
-      <c r="I63" s="1">
-        <f>I17+I16+I5</f>
-        <v>0</v>
-      </c>
-      <c r="J63" s="1">
-        <f>J17+J16+J5</f>
-        <v>0</v>
-      </c>
-      <c r="K63" s="1">
-        <f>K17+K16+K5</f>
-        <v>0</v>
-      </c>
-      <c r="L63" s="1">
-        <f>L17+L16+L5</f>
-        <v>0</v>
-      </c>
-      <c r="M63" s="1">
-        <f>M17+M16+M5</f>
+      <c r="G63">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="10"/>
+        <v>-0.05</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <f t="shared" si="10"/>
         <v>1100</v>
       </c>
-      <c r="N63" s="1">
-        <f t="shared" si="0"/>
-        <v>21.5</v>
-      </c>
-      <c r="P63" s="1">
+      <c r="N63">
+        <f t="shared" si="0"/>
+        <v>21.25</v>
+      </c>
+      <c r="P63">
         <f>P17+P16+P5</f>
         <v>21.7</v>
       </c>
-      <c r="Q63" s="1">
-        <f t="shared" si="3"/>
+      <c r="Q63">
+        <f t="shared" si="5"/>
         <v>0.47549999999999992</v>
       </c>
-      <c r="R63" s="1">
+      <c r="R63">
         <f>R17+R16+R5</f>
         <v>199.95</v>
       </c>
-      <c r="S63" s="1">
-        <f t="shared" si="2"/>
+      <c r="S63">
+        <f t="shared" si="3"/>
         <v>1099.8499999999999</v>
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B64" s="1" t="s">
+      <c r="B64" t="s">
         <v>28</v>
       </c>
-      <c r="C64" s="1">
-        <f>C19+C18+C5</f>
+      <c r="C64">
+        <f t="shared" ref="C64:M64" si="11">C19+C18+C5</f>
         <v>20</v>
       </c>
-      <c r="D64" s="1">
-        <f>D19+D18+D5</f>
+      <c r="D64">
+        <f t="shared" si="11"/>
         <v>0.54</v>
       </c>
-      <c r="E64" s="1">
-        <f>E19+E18+E5</f>
+      <c r="E64">
+        <f t="shared" si="11"/>
         <v>-4</v>
       </c>
-      <c r="F64" s="1">
-        <f>F19+F18+F5</f>
+      <c r="F64">
+        <f t="shared" si="11"/>
         <v>-6</v>
       </c>
-      <c r="G64" s="1">
-        <f>G19+G18+G5</f>
-        <v>0</v>
-      </c>
-      <c r="H64" s="1">
-        <f>H19+H18+H5</f>
-        <v>-0.1</v>
-      </c>
-      <c r="I64" s="1">
-        <f>I19+I18+I5</f>
-        <v>0</v>
-      </c>
-      <c r="J64" s="1">
-        <f>J19+J18+J5</f>
-        <v>0</v>
-      </c>
-      <c r="K64" s="1">
-        <f>K19+K18+K5</f>
-        <v>0</v>
-      </c>
-      <c r="L64" s="1">
-        <f>L19+L18+L5</f>
-        <v>0</v>
-      </c>
-      <c r="M64" s="1">
-        <f>M19+M18+M5</f>
+      <c r="G64">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="11"/>
+        <v>-0.05</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <f t="shared" si="11"/>
         <v>1500</v>
       </c>
-      <c r="N64" s="1">
-        <f t="shared" si="0"/>
-        <v>16.5</v>
-      </c>
-      <c r="P64" s="1">
+      <c r="N64">
+        <f t="shared" si="0"/>
+        <v>16.25</v>
+      </c>
+      <c r="P64">
         <f>P19+P18+P5</f>
         <v>31.799999999999997</v>
       </c>
-      <c r="Q64" s="1">
-        <f t="shared" si="3"/>
+      <c r="Q64">
+        <f t="shared" si="5"/>
         <v>0.62699999999999989</v>
       </c>
-      <c r="R64" s="1">
+      <c r="R64">
         <f>R19+R18+R5</f>
         <v>303.25</v>
       </c>
-      <c r="S64" s="1">
-        <f t="shared" si="2"/>
+      <c r="S64">
+        <f t="shared" si="3"/>
         <v>1409.75</v>
       </c>
     </row>
     <row r="65" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B65" s="1" t="s">
+      <c r="B65" t="s">
         <v>30</v>
       </c>
-      <c r="C65" s="1">
-        <f>C20+C18+C5</f>
+      <c r="C65">
+        <f t="shared" ref="C65:M65" si="12">C20+C18+C5</f>
         <v>13</v>
       </c>
-      <c r="D65" s="1">
-        <f>D20+D18+D5</f>
+      <c r="D65">
+        <f t="shared" si="12"/>
         <v>0.32</v>
       </c>
-      <c r="E65" s="1">
-        <f>E20+E18+E5</f>
+      <c r="E65">
+        <f t="shared" si="12"/>
         <v>-8</v>
       </c>
-      <c r="F65" s="1">
-        <f>F20+F18+F5</f>
+      <c r="F65">
+        <f t="shared" si="12"/>
         <v>-9</v>
       </c>
-      <c r="G65" s="1">
-        <f>G20+G18+G5</f>
-        <v>0</v>
-      </c>
-      <c r="H65" s="1">
-        <f>H20+H18+H5</f>
-        <v>-0.1</v>
-      </c>
-      <c r="I65" s="1">
-        <f>I20+I18+I5</f>
-        <v>0</v>
-      </c>
-      <c r="J65" s="1">
-        <f>J20+J18+J5</f>
-        <v>0</v>
-      </c>
-      <c r="K65" s="1">
-        <f>K20+K18+K5</f>
-        <v>0</v>
-      </c>
-      <c r="L65" s="1">
-        <f>L20+L18+L5</f>
-        <v>0</v>
-      </c>
-      <c r="M65" s="1">
-        <f>M20+M18+M5</f>
+      <c r="G65">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="12"/>
+        <v>-0.05</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <f t="shared" si="12"/>
         <v>1300</v>
       </c>
-      <c r="N65" s="1">
-        <f t="shared" si="0"/>
-        <v>18.899999999999999</v>
-      </c>
-      <c r="P65" s="1">
+      <c r="N65">
+        <f t="shared" si="0"/>
+        <v>18.649999999999999</v>
+      </c>
+      <c r="P65">
         <f>P20+P18+P5</f>
         <v>15.6</v>
       </c>
-      <c r="Q65" s="1">
-        <f t="shared" si="3"/>
+      <c r="Q65">
+        <f t="shared" si="5"/>
         <v>0.38400000000000001</v>
       </c>
-      <c r="R65" s="1">
+      <c r="R65">
         <f>R20+R18+R5</f>
         <v>154.9</v>
       </c>
-      <c r="S65" s="1">
-        <f t="shared" si="2"/>
+      <c r="S65">
+        <f t="shared" si="3"/>
         <v>964.7</v>
       </c>
     </row>
     <row r="66" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B66" s="1" t="s">
+      <c r="B66" t="s">
         <v>34</v>
       </c>
-      <c r="C66" s="1">
-        <f>C24+C23+C21+C5</f>
+      <c r="C66">
+        <f t="shared" ref="C66:M66" si="13">C24+C23+C21+C5</f>
         <v>16</v>
       </c>
-      <c r="D66" s="1">
-        <f>D24+D23+D21+D5</f>
+      <c r="D66">
+        <f t="shared" si="13"/>
         <v>0.38</v>
       </c>
-      <c r="E66" s="1">
-        <f>E24+E23+E21+E5</f>
+      <c r="E66">
+        <f t="shared" si="13"/>
         <v>-10</v>
       </c>
-      <c r="F66" s="1">
-        <f>F24+F23+F21+F5</f>
+      <c r="F66">
+        <f t="shared" si="13"/>
         <v>-10</v>
       </c>
-      <c r="G66" s="1">
-        <f>G24+G23+G21+G5</f>
-        <v>0</v>
-      </c>
-      <c r="H66" s="1">
-        <f>H24+H23+H21+H5</f>
-        <v>0</v>
-      </c>
-      <c r="I66" s="1">
-        <f>I24+I23+I21+I5</f>
-        <v>0</v>
-      </c>
-      <c r="J66" s="1">
-        <f>J24+J23+J21+J5</f>
-        <v>0</v>
-      </c>
-      <c r="K66" s="1">
-        <f>K24+K23+K21+K5</f>
-        <v>0</v>
-      </c>
-      <c r="L66" s="1">
-        <f>L24+L23+L21+L5</f>
-        <v>0</v>
-      </c>
-      <c r="M66" s="1">
-        <f>M24+M23+M21+M5</f>
+      <c r="G66">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <f t="shared" si="13"/>
         <v>1000</v>
       </c>
-      <c r="N66" s="1">
+      <c r="N66">
         <f t="shared" si="0"/>
         <v>22.4</v>
       </c>
-      <c r="P66" s="1">
+      <c r="P66">
         <f>P24+P23+P21+P5</f>
         <v>20</v>
       </c>
-      <c r="Q66" s="1">
-        <f t="shared" si="3"/>
+      <c r="Q66">
+        <f t="shared" si="5"/>
         <v>0.44999999999999996</v>
       </c>
-      <c r="R66" s="1">
+      <c r="R66">
         <f>R24+R23+R21+R5</f>
         <v>244.99</v>
       </c>
-      <c r="S66" s="1">
-        <f t="shared" si="2"/>
+      <c r="S66">
+        <f t="shared" si="3"/>
         <v>1234.97</v>
       </c>
     </row>
     <row r="67" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B67" s="1" t="s">
+      <c r="B67" t="s">
         <v>37</v>
       </c>
-      <c r="C67" s="1">
-        <f>C25+C21+C5</f>
+      <c r="C67">
+        <f t="shared" ref="C67:M67" si="14">C25+C21+C5</f>
         <v>18</v>
       </c>
-      <c r="D67" s="1">
-        <f>D25+D21+D5</f>
+      <c r="D67">
+        <f t="shared" si="14"/>
         <v>0.31000000000000005</v>
       </c>
-      <c r="E67" s="1">
-        <f>E25+E21+E5</f>
-        <v>-3</v>
-      </c>
-      <c r="F67" s="1">
-        <f>F25+F21+F5</f>
-        <v>-3</v>
-      </c>
-      <c r="G67" s="1">
-        <f>G25+G21+G5</f>
-        <v>0</v>
-      </c>
-      <c r="H67" s="1">
-        <f>H25+H21+H5</f>
-        <v>0</v>
-      </c>
-      <c r="I67" s="1">
-        <f>I25+I21+I5</f>
-        <v>0</v>
-      </c>
-      <c r="J67" s="1">
-        <f>J25+J21+J5</f>
-        <v>0</v>
-      </c>
-      <c r="K67" s="1">
-        <f>K25+K21+K5</f>
-        <v>0</v>
-      </c>
-      <c r="L67" s="1">
-        <f>L25+L21+L5</f>
-        <v>0</v>
-      </c>
-      <c r="M67" s="1">
-        <f>M25+M21+M5</f>
+      <c r="E67">
+        <f t="shared" si="14"/>
+        <v>-4</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="14"/>
+        <v>-4</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <f t="shared" si="14"/>
         <v>500</v>
       </c>
-      <c r="N67" s="1">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="P67" s="1">
+      <c r="N67">
+        <f t="shared" si="0"/>
+        <v>17.399999999999999</v>
+      </c>
+      <c r="P67">
         <f>P25+P21+P5</f>
         <v>15.4</v>
       </c>
-      <c r="Q67" s="1">
+      <c r="Q67">
+        <f t="shared" si="5"/>
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="R67">
+        <f>R25+R21+R5</f>
+        <v>0</v>
+      </c>
+      <c r="S67">
         <f t="shared" si="3"/>
-        <v>0.38100000000000001</v>
-      </c>
-      <c r="R67" s="1">
-        <f>R25+R21+R5</f>
-        <v>0</v>
-      </c>
-      <c r="S67" s="1">
-        <f t="shared" si="2"/>
         <v>500</v>
       </c>
     </row>
     <row r="68" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B68" s="1" t="s">
+      <c r="B68" t="s">
         <v>43</v>
       </c>
-      <c r="C68" s="1">
-        <f>C29+C26+C21+C5</f>
+      <c r="C68">
+        <f t="shared" ref="C68:M68" si="15">C29+C26+C21+C5</f>
         <v>16</v>
       </c>
-      <c r="D68" s="1">
-        <f>D29+D26+D21+D5</f>
+      <c r="D68">
+        <f t="shared" si="15"/>
         <v>0.34</v>
       </c>
-      <c r="E68" s="1">
-        <f>E29+E26+E21+E5</f>
+      <c r="E68">
+        <f t="shared" si="15"/>
         <v>-13</v>
       </c>
-      <c r="F68" s="1">
-        <f>F29+F26+F21+F5</f>
+      <c r="F68">
+        <f t="shared" si="15"/>
         <v>-7</v>
       </c>
-      <c r="G68" s="1">
-        <f>G29+G26+G21+G5</f>
-        <v>0</v>
-      </c>
-      <c r="H68" s="1">
-        <f>H29+H26+H21+H5</f>
-        <v>0</v>
-      </c>
-      <c r="I68" s="1">
-        <f>I29+I26+I21+I5</f>
-        <v>0</v>
-      </c>
-      <c r="J68" s="1">
-        <f>J29+J26+J21+J5</f>
-        <v>0</v>
-      </c>
-      <c r="K68" s="1">
-        <f>K29+K26+K21+K5</f>
-        <v>0</v>
-      </c>
-      <c r="L68" s="1">
-        <f>L29+L26+L21+L5</f>
-        <v>0</v>
-      </c>
-      <c r="M68" s="1">
-        <f>M29+M26+M21+M5</f>
+      <c r="G68">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <f t="shared" si="15"/>
         <v>1500</v>
       </c>
-      <c r="N68" s="1">
-        <f t="shared" ref="N68:N82" si="4">C68-(D68*20)-(E68*0.8)-(F68*0.6)-(H68*5)</f>
+      <c r="N68">
+        <f t="shared" ref="N68:N82" si="16">C68-(D68*20)-(E68*0.8)-(F68*0.6)-(H68*5)</f>
         <v>23.8</v>
       </c>
-      <c r="P68" s="1">
+      <c r="P68">
         <f>P29+P26+P21+P5</f>
         <v>20.6</v>
       </c>
-      <c r="Q68" s="1">
-        <f t="shared" si="3"/>
+      <c r="Q68">
+        <f t="shared" si="5"/>
         <v>0.45899999999999996</v>
       </c>
-      <c r="R68" s="1">
+      <c r="R68">
         <f>R29+R26+R21+R5</f>
         <v>402.9</v>
       </c>
-      <c r="S68" s="1">
-        <f t="shared" si="2"/>
+      <c r="S68">
+        <f t="shared" si="3"/>
         <v>1708.6999999999998</v>
       </c>
     </row>
     <row r="69" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B69" s="1" t="s">
+      <c r="B69" t="s">
         <v>45</v>
       </c>
-      <c r="C69" s="1">
-        <f>C30+C26+C21+C5</f>
+      <c r="C69">
+        <f t="shared" ref="C69:M69" si="17">C30+C26+C21+C5</f>
         <v>15</v>
       </c>
-      <c r="D69" s="1">
-        <f>D30+D26+D21+D5</f>
+      <c r="D69">
+        <f t="shared" si="17"/>
         <v>0.4</v>
       </c>
-      <c r="E69" s="1">
-        <f>E30+E26+E21+E5</f>
+      <c r="E69">
+        <f t="shared" si="17"/>
         <v>-6</v>
       </c>
-      <c r="F69" s="1">
-        <f>F30+F26+F21+F5</f>
+      <c r="F69">
+        <f t="shared" si="17"/>
         <v>-20</v>
       </c>
-      <c r="G69" s="1">
-        <f>G30+G26+G21+G5</f>
-        <v>0</v>
-      </c>
-      <c r="H69" s="1">
-        <f>H30+H26+H21+H5</f>
-        <v>0</v>
-      </c>
-      <c r="I69" s="1">
-        <f>I30+I26+I21+I5</f>
-        <v>0</v>
-      </c>
-      <c r="J69" s="1">
-        <f>J30+J26+J21+J5</f>
-        <v>0</v>
-      </c>
-      <c r="K69" s="1">
-        <f>K30+K26+K21+K5</f>
-        <v>0</v>
-      </c>
-      <c r="L69" s="1">
-        <f>L30+L26+L21+L5</f>
-        <v>0</v>
-      </c>
-      <c r="M69" s="1">
-        <f>M30+M26+M21+M5</f>
+      <c r="G69">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <f t="shared" si="17"/>
         <v>1600</v>
       </c>
-      <c r="N69" s="1">
-        <f t="shared" si="4"/>
+      <c r="N69">
+        <f t="shared" si="16"/>
         <v>23.8</v>
       </c>
-      <c r="P69" s="1">
+      <c r="P69">
         <f>P30+P26+P21+P5</f>
         <v>17.8</v>
       </c>
-      <c r="Q69" s="1">
-        <f t="shared" si="3"/>
+      <c r="Q69">
+        <f t="shared" si="5"/>
         <v>0.41700000000000004</v>
       </c>
-      <c r="R69" s="1">
+      <c r="R69">
         <f>R30+R26+R21+R5</f>
         <v>302.89999999999998</v>
       </c>
-      <c r="S69" s="1">
-        <f t="shared" si="2"/>
+      <c r="S69">
+        <f t="shared" si="3"/>
         <v>1408.6999999999998</v>
       </c>
     </row>
     <row r="70" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B70" s="1" t="s">
+      <c r="B70" t="s">
         <v>47</v>
       </c>
-      <c r="C70" s="1">
-        <f>C31+C32+C26+C21+C5</f>
+      <c r="C70">
+        <f t="shared" ref="C70:M70" si="18">C31+C32+C26+C21+C5</f>
         <v>18</v>
       </c>
-      <c r="D70" s="1">
-        <f>D31+D32+D26+D21+D5</f>
+      <c r="D70">
+        <f t="shared" si="18"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="E70" s="1">
-        <f>E31+E32+E26+E21+E5</f>
+      <c r="E70">
+        <f t="shared" si="18"/>
         <v>-8</v>
       </c>
-      <c r="F70" s="1">
-        <f>F31+F32+F26+F21+F5</f>
+      <c r="F70">
+        <f t="shared" si="18"/>
         <v>-9</v>
       </c>
-      <c r="G70" s="1">
-        <f>G31+G32+G26+G21+G5</f>
-        <v>0</v>
-      </c>
-      <c r="H70" s="1">
-        <f>H31+H32+H26+H21+H5</f>
-        <v>0</v>
-      </c>
-      <c r="I70" s="1">
-        <f>I31+I32+I26+I21+I5</f>
-        <v>0</v>
-      </c>
-      <c r="J70" s="1">
-        <f>J31+J32+J26+J21+J5</f>
-        <v>0</v>
-      </c>
-      <c r="K70" s="1">
-        <f>K31+K32+K26+K21+K5</f>
-        <v>0</v>
-      </c>
-      <c r="L70" s="1">
-        <f>L31+L32+L26+L21+L5</f>
-        <v>0</v>
-      </c>
-      <c r="M70" s="1">
-        <f>M31+M32+M26+M21+M5</f>
+      <c r="G70">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <f t="shared" si="18"/>
         <v>1100</v>
       </c>
-      <c r="N70" s="1">
-        <f t="shared" si="4"/>
+      <c r="N70">
+        <f t="shared" si="16"/>
         <v>23.799999999999997</v>
       </c>
-      <c r="P70" s="1">
+      <c r="P70">
         <f>P31+P32+P26+P21+P5</f>
         <v>11.399999999999999</v>
       </c>
-      <c r="Q70" s="1">
-        <f t="shared" si="3"/>
+      <c r="Q70">
+        <f t="shared" si="5"/>
         <v>0.32099999999999995</v>
       </c>
-      <c r="R70" s="1">
+      <c r="R70">
         <f>R31+R32+R26+R21+R5</f>
         <v>98.9</v>
       </c>
-      <c r="S70" s="1">
-        <f t="shared" si="2"/>
+      <c r="S70">
+        <f t="shared" si="3"/>
         <v>796.7</v>
       </c>
     </row>
     <row r="71" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B71" s="1" t="s">
+      <c r="B71" t="s">
         <v>50</v>
       </c>
-      <c r="C71" s="1">
-        <f>C34+C33+C26+C21+C5</f>
+      <c r="C71">
+        <f t="shared" ref="C71:M71" si="19">C34+C33+C26+C21+C5</f>
         <v>17</v>
       </c>
-      <c r="D71" s="1">
-        <f>D34+D33+D26+D21+D5</f>
+      <c r="D71">
+        <f t="shared" si="19"/>
         <v>0.35000000000000003</v>
       </c>
-      <c r="E71" s="1">
-        <f>E34+E33+E26+E21+E5</f>
+      <c r="E71">
+        <f t="shared" si="19"/>
         <v>-11</v>
       </c>
-      <c r="F71" s="1">
-        <f>F34+F33+F26+F21+F5</f>
+      <c r="F71">
+        <f t="shared" si="19"/>
         <v>-10</v>
       </c>
-      <c r="G71" s="1">
-        <f>G34+G33+G26+G21+G5</f>
-        <v>0</v>
-      </c>
-      <c r="H71" s="1">
-        <f>H34+H33+H26+H21+H5</f>
-        <v>0</v>
-      </c>
-      <c r="I71" s="1">
-        <f>I34+I33+I26+I21+I5</f>
-        <v>0</v>
-      </c>
-      <c r="J71" s="1">
-        <f>J34+J33+J26+J21+J5</f>
-        <v>0</v>
-      </c>
-      <c r="K71" s="1">
-        <f>K34+K33+K26+K21+K5</f>
-        <v>0</v>
-      </c>
-      <c r="L71" s="1">
-        <f>L34+L33+L26+L21+L5</f>
-        <v>0</v>
-      </c>
-      <c r="M71" s="1">
-        <f>M34+M33+M26+M21+M5</f>
+      <c r="G71">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <f t="shared" si="19"/>
         <v>1400</v>
       </c>
-      <c r="N71" s="1">
-        <f t="shared" si="4"/>
+      <c r="N71">
+        <f t="shared" si="16"/>
         <v>24.8</v>
       </c>
-      <c r="P71" s="1">
+      <c r="P71">
         <f>P34+P33+P26+P21+P5</f>
         <v>13.2</v>
       </c>
-      <c r="Q71" s="1">
-        <f t="shared" si="3"/>
+      <c r="Q71">
+        <f t="shared" si="5"/>
         <v>0.34799999999999998</v>
       </c>
-      <c r="R71" s="1">
+      <c r="R71">
         <f>R34+R33+R26+R21+R5</f>
         <v>97.9</v>
       </c>
-      <c r="S71" s="1">
-        <f t="shared" si="2"/>
+      <c r="S71">
+        <f t="shared" si="3"/>
         <v>793.7</v>
       </c>
     </row>
     <row r="72" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B72" s="1" t="s">
+      <c r="B72" t="s">
         <v>53</v>
       </c>
-      <c r="C72" s="1">
-        <f>C36+C35+C26+C21+C5</f>
+      <c r="C72">
+        <f t="shared" ref="C72:M72" si="20">C36+C35+C26+C21+C5</f>
         <v>16</v>
       </c>
-      <c r="D72" s="1">
-        <f>D36+D35+D26+D21+D5</f>
+      <c r="D72">
+        <f t="shared" si="20"/>
         <v>0.39</v>
       </c>
-      <c r="E72" s="1">
-        <f>E36+E35+E26+E21+E5</f>
+      <c r="E72">
+        <f t="shared" si="20"/>
         <v>-9</v>
       </c>
-      <c r="F72" s="1">
-        <f>F36+F35+F26+F21+F5</f>
+      <c r="F72">
+        <f t="shared" si="20"/>
         <v>-14</v>
       </c>
-      <c r="G72" s="1">
-        <f>G36+G35+G26+G21+G5</f>
-        <v>0</v>
-      </c>
-      <c r="H72" s="1">
-        <f>H36+H35+H26+H21+H5</f>
-        <v>0</v>
-      </c>
-      <c r="I72" s="1">
-        <f>I36+I35+I26+I21+I5</f>
-        <v>0</v>
-      </c>
-      <c r="J72" s="1">
-        <f>J36+J35+J26+J21+J5</f>
-        <v>0</v>
-      </c>
-      <c r="K72" s="1">
-        <f>K36+K35+K26+K21+K5</f>
-        <v>0</v>
-      </c>
-      <c r="L72" s="1">
-        <f>L36+L35+L26+L21+L5</f>
-        <v>0</v>
-      </c>
-      <c r="M72" s="1">
-        <f>M36+M35+M26+M21+M5</f>
+      <c r="G72">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <f t="shared" si="20"/>
         <v>1400</v>
       </c>
-      <c r="N72" s="1">
-        <f t="shared" si="4"/>
+      <c r="N72">
+        <f t="shared" si="16"/>
         <v>23.799999999999997</v>
       </c>
-      <c r="P72" s="1">
+      <c r="P72">
         <f>P36+P35+P26+P21+P5</f>
         <v>20.3</v>
       </c>
-      <c r="Q72" s="1">
-        <f t="shared" si="3"/>
+      <c r="Q72">
+        <f t="shared" si="5"/>
         <v>0.45450000000000002</v>
       </c>
-      <c r="R72" s="1">
+      <c r="R72">
         <f>R36+R35+R26+R21+R5</f>
         <v>302.95</v>
       </c>
-      <c r="S72" s="1">
-        <f t="shared" si="2"/>
+      <c r="S72">
+        <f t="shared" si="3"/>
         <v>1408.85</v>
       </c>
     </row>
     <row r="73" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B73" s="1" t="s">
+      <c r="B73" t="s">
         <v>56</v>
       </c>
-      <c r="C73" s="1">
-        <f>C38+C37+C26+C21+C5</f>
+      <c r="C73">
+        <f t="shared" ref="C73:M73" si="21">C38+C37+C26+C21+C5</f>
         <v>14</v>
       </c>
-      <c r="D73" s="1">
-        <f>D38+D37+D26+D21+D5</f>
+      <c r="D73">
+        <f t="shared" si="21"/>
         <v>0.42500000000000004</v>
       </c>
-      <c r="E73" s="1">
-        <f>E38+E37+E26+E21+E5</f>
+      <c r="E73">
+        <f t="shared" si="21"/>
         <v>-12</v>
       </c>
-      <c r="F73" s="1">
-        <f>F38+F37+F26+F21+F5</f>
+      <c r="F73">
+        <f t="shared" si="21"/>
         <v>-13</v>
       </c>
-      <c r="G73" s="1">
-        <f>G38+G37+G26+G21+G5</f>
-        <v>0</v>
-      </c>
-      <c r="H73" s="1">
-        <f>H38+H37+H26+H21+H5</f>
-        <v>0</v>
-      </c>
-      <c r="I73" s="1">
-        <f>I38+I37+I26+I21+I5</f>
-        <v>0</v>
-      </c>
-      <c r="J73" s="1">
-        <f>J38+J37+J26+J21+J5</f>
-        <v>0</v>
-      </c>
-      <c r="K73" s="1">
-        <f>K38+K37+K26+K21+K5</f>
-        <v>0</v>
-      </c>
-      <c r="L73" s="1">
-        <f>L38+L37+L26+L21+L5</f>
-        <v>0</v>
-      </c>
-      <c r="M73" s="1">
-        <f>M38+M37+M26+M21+M5</f>
+      <c r="G73">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <f t="shared" si="21"/>
         <v>1300</v>
       </c>
-      <c r="N73" s="1">
-        <f t="shared" si="4"/>
+      <c r="N73">
+        <f t="shared" si="16"/>
         <v>22.900000000000002</v>
       </c>
-      <c r="P73" s="1">
+      <c r="P73">
         <f>P38+P37+P26+P21+P5</f>
         <v>18.8</v>
       </c>
-      <c r="Q73" s="1">
-        <f t="shared" si="3"/>
+      <c r="Q73">
+        <f t="shared" si="5"/>
         <v>0.43199999999999994</v>
       </c>
-      <c r="R73" s="1">
+      <c r="R73">
         <f>R38+R37+R26+R21+R5</f>
         <v>250.89999999999998</v>
       </c>
-      <c r="S73" s="1">
-        <f t="shared" si="2"/>
+      <c r="S73">
+        <f t="shared" si="3"/>
         <v>1252.6999999999998</v>
       </c>
     </row>
     <row r="74" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B74" s="1" t="s">
+      <c r="B74" t="s">
         <v>59</v>
       </c>
-      <c r="C74" s="1">
+      <c r="C74">
         <f>C41+C40+C39+C26+C21+C5</f>
         <v>20</v>
       </c>
-      <c r="D74" s="1">
-        <f>D41+D40+D39+D26+D21+D5</f>
+      <c r="D74">
+        <f t="shared" ref="D74:L74" si="22">D41+D40+D39+D26+D21+D5</f>
         <v>0.56000000000000005</v>
       </c>
-      <c r="E74" s="1">
-        <f>E41+E40+E39+E26+E21+E5</f>
+      <c r="E74">
+        <f t="shared" si="22"/>
         <v>-6</v>
       </c>
-      <c r="F74" s="1">
-        <v>-4</v>
-      </c>
-      <c r="G74" s="1">
-        <f>G41+G40+G39+G26+G21+G5</f>
-        <v>0</v>
-      </c>
-      <c r="H74" s="1">
-        <f>H41+H40+H39+H26+H21+H5</f>
-        <v>-0.1</v>
-      </c>
-      <c r="I74" s="1">
-        <f>I41+I40+I39+I26+I21+I5</f>
-        <v>0</v>
-      </c>
-      <c r="J74" s="1">
-        <f>J41+J40+J39+J26+J21+J5</f>
-        <v>0</v>
-      </c>
-      <c r="K74" s="1">
-        <f>K41+K40+K39+K26+K21+K5</f>
-        <v>0</v>
-      </c>
-      <c r="L74" s="1">
-        <f>L41+L40+L39+L26+L21+L5</f>
-        <v>0</v>
-      </c>
-      <c r="M74" s="1">
-        <f>M41+M40+M39+M26+M21+M5</f>
+      <c r="F74">
+        <f t="shared" si="22"/>
+        <v>-5</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="22"/>
+        <v>-0.05</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <f t="shared" ref="M74" si="23">M41+M40+M39+M26+M21+M5</f>
         <v>2100</v>
       </c>
-      <c r="N74" s="1">
-        <f t="shared" si="4"/>
-        <v>16.5</v>
-      </c>
-      <c r="P74" s="1">
+      <c r="N74">
+        <f t="shared" si="16"/>
+        <v>16.850000000000001</v>
+      </c>
+      <c r="P74">
         <f>P41+P40+P39+P26+P21+P5</f>
         <v>32.6</v>
       </c>
-      <c r="Q74" s="1">
-        <f t="shared" si="3"/>
+      <c r="Q74">
+        <f t="shared" si="5"/>
         <v>0.63900000000000001</v>
       </c>
-      <c r="R74" s="1">
+      <c r="R74">
         <f>R41+R40+R39+R26+R21+R5</f>
         <v>312.89999999999998</v>
       </c>
-      <c r="S74" s="1">
-        <f t="shared" si="2"/>
+      <c r="S74">
+        <f t="shared" si="3"/>
         <v>1438.6999999999998</v>
       </c>
     </row>
     <row r="75" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B75" s="1" t="s">
+      <c r="B75" t="s">
         <v>64</v>
       </c>
-      <c r="C75" s="1">
+      <c r="C75">
         <f>C42+C26+C21+C5</f>
         <v>14</v>
       </c>
-      <c r="D75" s="1">
-        <f>D42+D26+D21+D5</f>
+      <c r="D75">
+        <f t="shared" ref="D75:M75" si="24">D42+D26+D21+D5</f>
         <v>0.35000000000000003</v>
       </c>
-      <c r="E75" s="1">
-        <f>E42+E26+E21+E5</f>
+      <c r="E75">
+        <f t="shared" si="24"/>
         <v>-10</v>
       </c>
-      <c r="F75" s="1">
-        <f>F42+F26+F21+F5</f>
+      <c r="F75">
+        <f t="shared" si="24"/>
         <v>-13</v>
       </c>
-      <c r="G75" s="1">
-        <f>G42+G26+G21+G5</f>
-        <v>0</v>
-      </c>
-      <c r="H75" s="1">
-        <f>H42+H26+H21+H5</f>
-        <v>0</v>
-      </c>
-      <c r="I75" s="1">
-        <f>I42+I26+I21+I5</f>
-        <v>0</v>
-      </c>
-      <c r="J75" s="1">
-        <f>J42+J26+J21+J5</f>
-        <v>0</v>
-      </c>
-      <c r="K75" s="1">
-        <f>K42+K26+K21+K5</f>
-        <v>0</v>
-      </c>
-      <c r="L75" s="1">
-        <f>L42+L26+L21+L5</f>
-        <v>0</v>
-      </c>
-      <c r="M75" s="1">
-        <f>M42+M26+M21+M5</f>
+      <c r="G75">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <f t="shared" si="24"/>
         <v>1200</v>
       </c>
-      <c r="N75" s="1">
-        <f t="shared" si="4"/>
+      <c r="N75">
+        <f t="shared" si="16"/>
         <v>22.8</v>
       </c>
-      <c r="P75" s="1">
+      <c r="P75">
         <f>P42+P26+P21+P5</f>
         <v>14.3</v>
       </c>
-      <c r="Q75" s="1">
-        <f t="shared" si="3"/>
+      <c r="Q75">
+        <f t="shared" si="5"/>
         <v>0.36449999999999999</v>
       </c>
-      <c r="R75" s="1">
+      <c r="R75">
         <f>R42+R26+R21+R5</f>
         <v>112.85</v>
       </c>
-      <c r="S75" s="1">
-        <f t="shared" si="2"/>
+      <c r="S75">
+        <f t="shared" si="3"/>
         <v>838.55</v>
       </c>
     </row>
     <row r="76" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B76" s="1" t="s">
+      <c r="B76" t="s">
         <v>66</v>
       </c>
-      <c r="C76" s="1">
+      <c r="C76">
         <f>C43+C26+C21+C5</f>
         <v>15</v>
       </c>
-      <c r="D76" s="1">
-        <f>D43+D26+D21+D5</f>
+      <c r="D76">
+        <f t="shared" ref="D76:M76" si="25">D43+D26+D21+D5</f>
         <v>0.36000000000000004</v>
       </c>
-      <c r="E76" s="1">
-        <f>E43+E26+E21+E5</f>
+      <c r="E76">
+        <f t="shared" si="25"/>
         <v>-13</v>
       </c>
-      <c r="F76" s="1">
-        <f>F43+F26+F21+F5</f>
+      <c r="F76">
+        <f t="shared" si="25"/>
         <v>-8</v>
       </c>
-      <c r="G76" s="1">
-        <f>G43+G26+G21+G5</f>
-        <v>0</v>
-      </c>
-      <c r="H76" s="1">
-        <f>H43+H26+H21+H5</f>
-        <v>0</v>
-      </c>
-      <c r="I76" s="1">
-        <f>I43+I26+I21+I5</f>
-        <v>0</v>
-      </c>
-      <c r="J76" s="1">
-        <f>J43+J26+J21+J5</f>
-        <v>0</v>
-      </c>
-      <c r="K76" s="1">
-        <f>K43+K26+K21+K5</f>
-        <v>0</v>
-      </c>
-      <c r="L76" s="1">
-        <f>L43+L26+L21+L5</f>
-        <v>0</v>
-      </c>
-      <c r="M76" s="1">
-        <f>M43+M26+M21+M5</f>
+      <c r="G76">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <f t="shared" si="25"/>
         <v>1350</v>
       </c>
-      <c r="N76" s="1">
-        <f t="shared" si="4"/>
+      <c r="N76">
+        <f t="shared" si="16"/>
         <v>23</v>
       </c>
-      <c r="P76" s="1">
+      <c r="P76">
         <f>P43+P26+P21+P5</f>
         <v>14.8</v>
       </c>
-      <c r="Q76" s="1">
-        <f t="shared" si="3"/>
+      <c r="Q76">
+        <f t="shared" si="5"/>
         <v>0.372</v>
       </c>
-      <c r="R76" s="1">
+      <c r="R76">
         <f>R43+R26+R21+R5</f>
         <v>52.95</v>
       </c>
-      <c r="S76" s="1">
-        <f t="shared" si="2"/>
+      <c r="S76">
+        <f t="shared" si="3"/>
         <v>658.85</v>
       </c>
     </row>
     <row r="77" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B77" s="1" t="s">
+      <c r="B77" t="s">
         <v>68</v>
       </c>
-      <c r="C77" s="1">
-        <f>C44+C26+C21+C5</f>
+      <c r="C77">
+        <f t="shared" ref="C77:M77" si="26">C44+C26+C21+C5</f>
         <v>15</v>
       </c>
-      <c r="D77" s="1">
-        <f>D44+D26+D21+D5</f>
+      <c r="D77">
+        <f t="shared" si="26"/>
         <v>0.34</v>
       </c>
-      <c r="E77" s="1">
-        <f>E44+E26+E21+E5</f>
+      <c r="E77">
+        <f t="shared" si="26"/>
         <v>-10</v>
       </c>
-      <c r="F77" s="1">
-        <f>F44+F26+F21+F5</f>
+      <c r="F77">
+        <f t="shared" si="26"/>
         <v>-8</v>
       </c>
-      <c r="G77" s="1">
-        <f>G44+G26+G21+G5</f>
-        <v>0</v>
-      </c>
-      <c r="H77" s="1">
-        <f>H44+H26+H21+H5</f>
-        <v>0</v>
-      </c>
-      <c r="I77" s="1">
-        <f>I44+I26+I21+I5</f>
-        <v>0</v>
-      </c>
-      <c r="J77" s="1">
-        <f>J44+J26+J21+J5</f>
-        <v>0</v>
-      </c>
-      <c r="K77" s="1">
-        <f>K44+K26+K21+K5</f>
-        <v>0</v>
-      </c>
-      <c r="L77" s="1">
-        <f>L44+L26+L21+L5</f>
-        <v>0</v>
-      </c>
-      <c r="M77" s="1">
-        <f>M44+M26+M21+M5</f>
+      <c r="G77">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <f t="shared" si="26"/>
         <v>600</v>
       </c>
-      <c r="N77" s="1">
-        <f t="shared" si="4"/>
+      <c r="N77">
+        <f t="shared" si="16"/>
         <v>21</v>
       </c>
-      <c r="P77" s="1">
+      <c r="P77">
         <f>P44+P26+P21+P5</f>
         <v>12.8</v>
       </c>
-      <c r="Q77" s="1">
-        <f t="shared" si="3"/>
+      <c r="Q77">
+        <f t="shared" si="5"/>
         <v>0.34199999999999997</v>
       </c>
-      <c r="R77" s="1">
+      <c r="R77">
         <f>R44+R26+R21+R5</f>
         <v>52.95</v>
       </c>
-      <c r="S77" s="1">
-        <f t="shared" si="2"/>
+      <c r="S77">
+        <f t="shared" si="3"/>
         <v>658.85</v>
       </c>
     </row>
     <row r="78" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B78" s="1" t="s">
+      <c r="B78" t="s">
         <v>71</v>
       </c>
-      <c r="C78" s="1">
-        <f>C46+C45+C26+C21+C5</f>
+      <c r="C78">
+        <f t="shared" ref="C78:M78" si="27">C46+C45+C26+C21+C5</f>
         <v>18</v>
       </c>
-      <c r="D78" s="1">
-        <f>D46+D45+D26+D21+D5</f>
+      <c r="D78">
+        <f t="shared" si="27"/>
         <v>0.4</v>
       </c>
-      <c r="E78" s="1">
-        <f>E46+E45+E26+E21+E5</f>
+      <c r="E78">
+        <f t="shared" si="27"/>
         <v>-7</v>
       </c>
-      <c r="F78" s="1">
-        <f>F46+F45+F26+F21+F5</f>
+      <c r="F78">
+        <f t="shared" si="27"/>
         <v>-15</v>
       </c>
-      <c r="G78" s="1">
-        <f>G46+G45+G26+G21+G5</f>
-        <v>0</v>
-      </c>
-      <c r="H78" s="1">
-        <f>H46+H45+H26+H21+H5</f>
-        <v>0</v>
-      </c>
-      <c r="I78" s="1">
-        <f>I46+I45+I26+I21+I5</f>
-        <v>0</v>
-      </c>
-      <c r="J78" s="1">
-        <f>J46+J45+J26+J21+J5</f>
-        <v>0</v>
-      </c>
-      <c r="K78" s="1">
-        <f>K46+K45+K26+K21+K5</f>
-        <v>0</v>
-      </c>
-      <c r="L78" s="1">
-        <f>L46+L45+L26+L21+L5</f>
-        <v>0</v>
-      </c>
-      <c r="M78" s="1">
-        <f>M46+M45+M26+M21+M5</f>
+      <c r="G78">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <f t="shared" si="27"/>
         <v>1300</v>
       </c>
-      <c r="N78" s="1">
-        <f t="shared" si="4"/>
+      <c r="N78">
+        <f t="shared" si="16"/>
         <v>24.6</v>
       </c>
-      <c r="P78" s="1">
+      <c r="P78">
         <f>P46+P45+P26+P21+P5</f>
         <v>17.2</v>
       </c>
-      <c r="Q78" s="1">
-        <f t="shared" si="3"/>
+      <c r="Q78">
+        <f t="shared" si="5"/>
         <v>0.40800000000000003</v>
       </c>
-      <c r="R78" s="1">
+      <c r="R78">
         <f>R46+R45+R26+R21+R5</f>
         <v>261.95</v>
       </c>
-      <c r="S78" s="1">
-        <f t="shared" si="2"/>
+      <c r="S78">
+        <f t="shared" si="3"/>
         <v>1285.8499999999999</v>
       </c>
     </row>
     <row r="79" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B79" s="1" t="s">
+      <c r="B79" t="s">
         <v>73</v>
       </c>
-      <c r="C79" s="1">
-        <f>C48+C47+C26+C21+C5</f>
+      <c r="C79">
+        <f t="shared" ref="C79:M79" si="28">C48+C47+C26+C21+C5</f>
         <v>16</v>
       </c>
-      <c r="D79" s="1">
-        <f>D48+D47+D26+D21+D5</f>
+      <c r="D79">
+        <f t="shared" si="28"/>
         <v>0.31000000000000005</v>
       </c>
-      <c r="E79" s="1">
-        <f>E48+E47+E26+E21+E5</f>
+      <c r="E79">
+        <f t="shared" si="28"/>
         <v>-8</v>
       </c>
-      <c r="F79" s="1">
-        <f>F48+F47+F26+F21+F5</f>
+      <c r="F79">
+        <f t="shared" si="28"/>
         <v>-13</v>
       </c>
-      <c r="G79" s="1">
-        <f>G48+G47+G26+G21+G5</f>
-        <v>0</v>
-      </c>
-      <c r="H79" s="1">
-        <f>H48+H47+H26+H21+H5</f>
-        <v>0</v>
-      </c>
-      <c r="I79" s="1">
-        <f>I48+I47+I26+I21+I5</f>
-        <v>0</v>
-      </c>
-      <c r="J79" s="1">
-        <f>J48+J47+J26+J21+J5</f>
-        <v>0</v>
-      </c>
-      <c r="K79" s="1">
-        <f>K48+K47+K26+K21+K5</f>
-        <v>0</v>
-      </c>
-      <c r="L79" s="1">
-        <f>L48+L47+L26+L21+L5</f>
-        <v>0</v>
-      </c>
-      <c r="M79" s="1">
-        <f>M48+M47+M26+M21+M5</f>
+      <c r="G79">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <f t="shared" si="28"/>
         <v>1100</v>
       </c>
-      <c r="N79" s="1">
-        <f t="shared" si="4"/>
+      <c r="N79">
+        <f t="shared" si="16"/>
         <v>24</v>
       </c>
-      <c r="P79" s="1">
+      <c r="P79">
         <f>P48+P47+P26+P21+P5</f>
         <v>10.399999999999999</v>
       </c>
-      <c r="Q79" s="1">
-        <f t="shared" si="3"/>
+      <c r="Q79">
+        <f t="shared" si="5"/>
         <v>0.30599999999999994</v>
       </c>
-      <c r="R79" s="1">
+      <c r="R79">
         <f>R48+R47+R26+R21+R5</f>
         <v>102.95</v>
       </c>
-      <c r="S79" s="1">
-        <f t="shared" si="2"/>
+      <c r="S79">
+        <f t="shared" si="3"/>
         <v>808.85</v>
       </c>
     </row>
     <row r="80" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B80" s="1" t="s">
+      <c r="B80" t="s">
         <v>76</v>
       </c>
-      <c r="C80" s="1">
-        <f>C50+C49+C26+C21+C5</f>
+      <c r="C80">
+        <f t="shared" ref="C80:M80" si="29">C50+C49+C26+C21+C5</f>
         <v>17</v>
       </c>
-      <c r="D80" s="1">
-        <f>D50+D49+D26+D21+D5</f>
+      <c r="D80">
+        <f t="shared" si="29"/>
         <v>0.39</v>
       </c>
-      <c r="E80" s="1">
-        <f>E50+E49+E26+E21+E5</f>
+      <c r="E80">
+        <f t="shared" si="29"/>
         <v>-11</v>
       </c>
-      <c r="F80" s="1">
-        <f>F50+F49+F26+F21+F5</f>
+      <c r="F80">
+        <f t="shared" si="29"/>
         <v>-11</v>
       </c>
-      <c r="G80" s="1">
-        <f>G50+G49+G26+G21+G5</f>
-        <v>0</v>
-      </c>
-      <c r="H80" s="1">
-        <f>H50+H49+H26+H21+H5</f>
-        <v>0</v>
-      </c>
-      <c r="I80" s="1">
-        <f>I50+I49+I26+I21+I5</f>
-        <v>0</v>
-      </c>
-      <c r="J80" s="1">
-        <f>J50+J49+J26+J21+J5</f>
-        <v>0</v>
-      </c>
-      <c r="K80" s="1">
-        <f>K50+K49+K26+K21+K5</f>
-        <v>0</v>
-      </c>
-      <c r="L80" s="1">
-        <f>L50+L49+L26+L21+L5</f>
-        <v>0</v>
-      </c>
-      <c r="M80" s="1">
-        <f>M50+M49+M26+M21+M5</f>
+      <c r="G80">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <f t="shared" si="29"/>
         <v>1500</v>
       </c>
-      <c r="N80" s="1">
-        <f t="shared" si="4"/>
+      <c r="N80">
+        <f t="shared" si="16"/>
         <v>24.6</v>
       </c>
-      <c r="P80" s="1">
+      <c r="P80">
         <f>P50+P49+P26+P21+P5</f>
         <v>17.399999999999999</v>
       </c>
-      <c r="Q80" s="1">
-        <f t="shared" si="3"/>
+      <c r="Q80">
+        <f t="shared" si="5"/>
         <v>0.41099999999999992</v>
       </c>
-      <c r="R80" s="1">
+      <c r="R80">
         <f>R50+R49+R26+R21+R5</f>
         <v>137.9</v>
       </c>
-      <c r="S80" s="1">
-        <f t="shared" si="2"/>
+      <c r="S80">
+        <f t="shared" si="3"/>
         <v>913.7</v>
       </c>
     </row>
     <row r="81" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B81" s="1" t="s">
+      <c r="B81" t="s">
         <v>106</v>
       </c>
-      <c r="C81" s="1">
-        <f>C52+C51+C26+C21+C5</f>
+      <c r="C81">
+        <f t="shared" ref="C81:M81" si="30">C52+C51+C26+C21+C5</f>
         <v>18</v>
       </c>
-      <c r="D81" s="1">
+      <c r="D81">
         <f>D52+D51+D26+D21+D5</f>
         <v>0.33</v>
       </c>
-      <c r="E81" s="1">
-        <f>E52+E51+E26+E21+E5</f>
+      <c r="E81">
+        <f t="shared" si="30"/>
         <v>-9</v>
       </c>
-      <c r="F81" s="1">
-        <f>F52+F51+F26+F21+F5</f>
+      <c r="F81">
+        <f t="shared" si="30"/>
         <v>-10</v>
       </c>
-      <c r="G81" s="1">
-        <f>G52+G51+G26+G21+G5</f>
-        <v>0</v>
-      </c>
-      <c r="H81" s="1">
-        <f>H52+H51+H26+H21+H5</f>
-        <v>0</v>
-      </c>
-      <c r="I81" s="1">
-        <f>I52+I51+I26+I21+I5</f>
-        <v>0</v>
-      </c>
-      <c r="J81" s="1">
-        <f>J52+J51+J26+J21+J5</f>
-        <v>0</v>
-      </c>
-      <c r="K81" s="1">
-        <f>K52+K51+K26+K21+K5</f>
-        <v>0</v>
-      </c>
-      <c r="L81" s="1">
-        <f>L52+L51+L26+L21+L5</f>
-        <v>0</v>
-      </c>
-      <c r="M81" s="1">
-        <f>M52+M51+M26+M21+M5</f>
+      <c r="G81">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <f t="shared" si="30"/>
         <v>1400</v>
       </c>
-      <c r="N81" s="1">
-        <f t="shared" si="4"/>
+      <c r="N81">
+        <f t="shared" si="16"/>
         <v>24.599999999999998</v>
       </c>
-      <c r="P81" s="1">
+      <c r="P81">
         <f>P52+P51+P26+P21+P5</f>
         <v>12.6</v>
       </c>
-      <c r="Q81" s="1">
-        <f t="shared" si="3"/>
+      <c r="Q81">
+        <f t="shared" si="5"/>
         <v>0.33899999999999997</v>
       </c>
-      <c r="R81" s="1">
+      <c r="R81">
         <f>R52+R51+R26+R21+R5</f>
         <v>97.9</v>
       </c>
-      <c r="S81" s="1">
-        <f t="shared" si="2"/>
+      <c r="S81">
+        <f t="shared" si="3"/>
         <v>793.7</v>
       </c>
     </row>
     <row r="82" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B82" s="1" t="s">
+      <c r="B82" t="s">
         <v>113</v>
       </c>
-      <c r="C82" s="1">
-        <f>C54+C53+C26+C21+C5</f>
+      <c r="C82">
+        <f t="shared" ref="C82:M82" si="31">C54+C53+C26+C21+C5</f>
         <v>16</v>
       </c>
-      <c r="D82" s="1">
-        <f>D54+D53+D26+D21+D5</f>
+      <c r="D82">
+        <f t="shared" si="31"/>
         <v>0.34</v>
       </c>
-      <c r="E82" s="1">
-        <f>E54+E53+E26+E21+E5</f>
+      <c r="E82">
+        <f t="shared" si="31"/>
         <v>-10</v>
       </c>
-      <c r="F82" s="1">
-        <f>F54+F53+F26+F21+F5</f>
+      <c r="F82">
+        <f t="shared" si="31"/>
         <v>-12</v>
       </c>
-      <c r="G82" s="1">
-        <f>G54+G53+G26+G21+G5</f>
-        <v>0</v>
-      </c>
-      <c r="H82" s="1">
-        <f>H54+H53+H26+H21+H5</f>
-        <v>0</v>
-      </c>
-      <c r="I82" s="1">
-        <f>I54+I53+I26+I21+I5</f>
-        <v>0</v>
-      </c>
-      <c r="J82" s="1">
-        <f>J54+J53+J26+J21+J5</f>
-        <v>0</v>
-      </c>
-      <c r="K82" s="1">
-        <f>K54+K53+K26+K21+K5</f>
-        <v>0</v>
-      </c>
-      <c r="L82" s="1">
-        <f>L54+L53+L26+L21+L5</f>
-        <v>0</v>
-      </c>
-      <c r="M82" s="1">
-        <f>M54+M53+M26+M21+M5</f>
+      <c r="G82">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <f t="shared" si="31"/>
         <v>1500</v>
       </c>
-      <c r="N82" s="1">
-        <f t="shared" si="4"/>
+      <c r="N82">
+        <f t="shared" si="16"/>
         <v>24.4</v>
       </c>
-      <c r="P82" s="1">
+      <c r="P82">
         <f>P54+P53+P26+P21+P5</f>
         <v>12.8</v>
       </c>
-      <c r="Q82" s="1">
-        <f t="shared" si="3"/>
+      <c r="Q82">
+        <f t="shared" si="5"/>
         <v>0.34199999999999997</v>
       </c>
-      <c r="R82" s="1">
+      <c r="R82">
         <f>R54+R53+R26+R21+R5</f>
         <v>134.94999999999999</v>
       </c>
-      <c r="S82" s="1">
-        <f t="shared" si="2"/>
+      <c r="S82">
+        <f t="shared" si="3"/>
         <v>904.84999999999991</v>
       </c>
     </row>
